--- a/sample.xlsx
+++ b/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\so4se\github\label_generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A234E92B-C3C8-42B8-B6B7-EE9B2150E07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB138BEB-D016-4D36-933E-BA489CC86767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-110" windowWidth="18470" windowHeight="11020" xr2:uid="{9FDB8882-2F4C-4EED-92B5-6E3DC43D9A98}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="31">
   <si>
     <t>Gaudryceras</t>
     <phoneticPr fontId="1"/>
@@ -206,16 +205,6 @@
   </si>
   <si>
     <t>D=100cm</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>武井層</t>
-    <rPh sb="0" eb="2">
-      <t>タケイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ソウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -659,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C0F71A0-8DA3-49A6-AF4A-D98CF8C5656A}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F2:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -725,13 +714,13 @@
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" s="2">
         <v>6155</v>
@@ -752,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -766,13 +755,13 @@
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2">
         <v>6224</v>
@@ -793,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -810,13 +799,13 @@
         <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" s="2">
         <v>6183</v>
@@ -837,7 +826,7 @@
         <v>3</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -851,13 +840,13 @@
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" s="2">
         <v>6155</v>
@@ -878,7 +867,7 @@
         <v>4</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -892,13 +881,13 @@
         <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6" s="2">
         <v>6224</v>
@@ -919,7 +908,7 @@
         <v>5</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -936,13 +925,13 @@
         <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" s="2">
         <v>6183</v>
@@ -963,7 +952,7 @@
         <v>6</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -977,13 +966,13 @@
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" s="2">
         <v>6155</v>
@@ -1004,7 +993,7 @@
         <v>7</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -1018,13 +1007,13 @@
         <v>6</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" s="2">
         <v>6224</v>
@@ -1045,7 +1034,7 @@
         <v>8</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -1062,13 +1051,13 @@
         <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H10" s="2">
         <v>6183</v>
@@ -1089,7 +1078,7 @@
         <v>9</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -1103,13 +1092,13 @@
         <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" s="2">
         <v>6155</v>
@@ -1130,7 +1119,7 @@
         <v>10</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -1144,13 +1133,13 @@
         <v>6</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H12" s="2">
         <v>6224</v>
@@ -1171,7 +1160,7 @@
         <v>11</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -1188,13 +1177,13 @@
         <v>7</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H13" s="2">
         <v>6183</v>
@@ -1215,7 +1204,7 @@
         <v>12</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -1229,13 +1218,13 @@
         <v>5</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H14" s="2">
         <v>6155</v>
@@ -1256,7 +1245,7 @@
         <v>13</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -1270,13 +1259,13 @@
         <v>6</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H15" s="2">
         <v>6224</v>
@@ -1297,7 +1286,7 @@
         <v>14</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -1314,13 +1303,13 @@
         <v>7</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H16" s="2">
         <v>6183</v>
@@ -1341,24 +1330,24 @@
         <v>15</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H17" s="2">
         <v>6183</v>
@@ -1379,24 +1368,24 @@
         <v>17</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H18" s="2">
         <v>6183</v>
@@ -1417,24 +1406,24 @@
         <v>18</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H19" s="2">
         <v>6183</v>
@@ -1455,24 +1444,24 @@
         <v>19</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H20" s="2">
         <v>6183</v>
@@ -1493,7 +1482,7 @@
         <v>20</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
